--- a/medicine/Handicap/Édouard_Detrez/Édouard_Detrez.xlsx
+++ b/medicine/Handicap/Édouard_Detrez/Édouard_Detrez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Detrez</t>
+          <t>Édouard_Detrez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edouard Detrez, né le 30 août 1991 à Périgueux, Dordogne (département), est un entrepreneur français.
 Il est le fondateur de la marque « le Fauteuil Roulant Français ». En janvier 2018, durant 21 jours, il traverse la France en parcourant 710 km en fauteuil roulant jusqu’au Palais de l'Élysée à la Rencontre du Président de la République Emmanuel Macron.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Detrez</t>
+          <t>Édouard_Detrez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Édouard Detrez, né le 30 août 1991 à Périgueux, est le dernier d’une famille de quatre enfants. Né très grand prématuré, Il est atteint du Syndrome de Little, une Infirmité motrice cérébrale, renommée Paralysie cérébrale. Devant l’immense difficulté pour lui de rester en vie, ses parents acceptent sur décision du corps médical, qu’il participe aux premiers essais cliniques du « Surfactant » médicament aujourd’hui couramment utilisé permettant aux organes n’ayant pas eu le temps de se développer dans le ventre de la mère, de poursuivre leur développement. Sa vie reste incertaine jusque dans les premiers mois de sa vie au cours desquels il subit plusieurs pneumothorax et arrêts du cœur, entraînant l’obligation de rester branché à une machine pour surveiller ses fonctions vitales.
 Jusqu’à ses 18 ans, il subit plus d’une dizaine d’opérations aux membres inférieurs qui lui permettent de se déplacer sur de courtes distances, lui apporter un confort dans la marche et déjoue ainsi les pronostics de nombreux médecins qui, dans les premières années de sa vie, ne voyait en lui aucun espoir de ne faire, ne serait-ce que quelques pas. Il se déplace principalement en fauteuil roulant pour préserver son capital de marche. Il reste en hôpital de jour jusqu’à l’âge de 7 ans avant d’entrer à l’école primaire en milieu scolaire ordinaire où il fait face à de nombreuses moqueries.
 De 2004 à 2006, il intègre au sein du collège Henri Bosco de Toulon, une Unité Pédagogique d’intégration, classe à petit effectif avec auxiliaire de vie scolaire regroupant des adolescents handicapés moteurs.
@@ -522,13 +540,123 @@
 De 2010 à 2014, Il poursuit des études supérieures en Services et Réseaux de Communication à l’Institut universitaire de technologie de Tarbes puis un Bachelor Management du commerce du sport au CNPC Sport Business Campus de Pau-Lescar avec l’envie de créer sa start-up
 [réf. nécessaire]
 .
-Parcours d’entrepreneur
-En 2015, il crée la marque « le Fauteuil Roulant Français » dont le logo est réalisé par Le Slip français. Cette dernière a pour finalité la conception, la fabrication et la commercialisation d’une gamme de fauteuils roulants actifs et sportifs personnalisables « Made in France » dans le secteur du matériel médical. Une démarche prônant la ré-industrialisation du territoire, le réinvestissement de subventions d’État dans l’économie et la mise en valeur des savoir-faire[1].
-Exploit et reconnaissance
-Sportif pratiquant du basket-ball en fauteuil roulant puis du tennis en fauteuil roulant , il se lance en janvier 2018, à l’image du film Forrest Gump, dans une traversée de la France longue de 710 km du Gers jusqu’au Palais de l’Élysée pour interpeller les institutions sur le sort et le développement de sa création, le savoir-faire de proximité comme rayonnement de la France en Europe et à l’international mais aussi véhiculer les préoccupations des personnes en situation de handicap et leurs capacités[2],[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours d’entrepreneur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, il crée la marque « le Fauteuil Roulant Français » dont le logo est réalisé par Le Slip français. Cette dernière a pour finalité la conception, la fabrication et la commercialisation d’une gamme de fauteuils roulants actifs et sportifs personnalisables « Made in France » dans le secteur du matériel médical. Une démarche prônant la ré-industrialisation du territoire, le réinvestissement de subventions d’État dans l’économie et la mise en valeur des savoir-faire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcours d’entrepreneur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Exploit et reconnaissance</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportif pratiquant du basket-ball en fauteuil roulant puis du tennis en fauteuil roulant , il se lance en janvier 2018, à l’image du film Forrest Gump, dans une traversée de la France longue de 710 km du Gers jusqu’au Palais de l’Élysée pour interpeller les institutions sur le sort et le développement de sa création, le savoir-faire de proximité comme rayonnement de la France en Europe et à l’international mais aussi véhiculer les préoccupations des personnes en situation de handicap et leurs capacités.
 Durant 21 jours, il connait un buzz médiatique à la rencontre de nombreux élus, français de tous territoires au contact de leurs attentes, leurs craintes et leurs espoirs.
-À l’arrivée de son périple, il est décoré de la médaille du sénat par le Président du Sénat (France) Gérard Larcher et reçu par de nombreuses personnalités politiques et du gouvernement dont le Président de la République Emmanuel Macron pour un tête à tête au Palais de l'Élysées[2],[3],[4].
-Consultant
+À l’arrivée de son périple, il est décoré de la médaille du sénat par le Président du Sénat (France) Gérard Larcher et reçu par de nombreuses personnalités politiques et du gouvernement dont le Président de la République Emmanuel Macron pour un tête à tête au Palais de l'Élysées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Consultant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cette épopée lui permet de vivre plusieurs expériences de chroniqueur au sein des émissions Les Grandes Gueules sur RMC, William à midi ! et Touche pas à mon poste ! sur C8. Il anime également des conférences sur de nombreux thèmes tels que l'entrepreneuriat et le Made in France, le handicap, la motivation ou encore la résilience.
 En octobre 2018, il est ambassadeur Airbnb France et participe à un groupe de réflexions en vue des Jeux paralympiques d'été de 2024 puis s’envole à Sydney, en Australie pour favoriser « le tourisme accessible » 
 En avril 2019, il est choisi pour faire partie d’une équipe d’ambassadeurs symbolisant l’excellence à la française « les créatives » et devient ambassadeur « mobilité et accessibilité universelle » de la Tour Hekla, imaginée par l’architecte Jean Nouvel, en construction à Paris La Défense jusqu’en 2022.
@@ -539,93 +667,99 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89douard_Detrez</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 24 avril 2019, il est choisi pour être candidat aux élections européennes sur la liste « Renaissance » de La République en marche. Dans la continuité de sa traversée de la France en fauteuil roulant, il est convaincu du besoin d’expertise et de légitimité en la matière, animé par la volonté de porter les préoccupations des 12 millions de français, 80 millions d’européens et 650 millions d’individus dans le monde touchés par une déficience physique, sensorielle, mentale et/ou intellectuelle. Sa 38e position sur la liste ne lui permet pas d’être élu[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24 avril 2019, il est choisi pour être candidat aux élections européennes sur la liste « Renaissance » de La République en marche. Dans la continuité de sa traversée de la France en fauteuil roulant, il est convaincu du besoin d’expertise et de légitimité en la matière, animé par la volonté de porter les préoccupations des 12 millions de français, 80 millions d’européens et 650 millions d’individus dans le monde touchés par une déficience physique, sensorielle, mentale et/ou intellectuelle. Sa 38e position sur la liste ne lui permet pas d’être élu.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89douard_Detrez</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour son long métrage Tout le monde debout, comédie romantique traitant le sujet du handicap, Franck Dubosc choisit les fauteuils roulants créés par Édouard Detrez. Alexandra Lamy, qui joue le rôle d'une femme paraplégique, se déplace sur un Fauteuil Roulant Français[5] : Édouard Detrez – le Fauteuil Roulant Français – C’est vous la France (30min) diffusé sur Public Sénat et réalisé par Mathieu Pheng.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour son long métrage Tout le monde debout, comédie romantique traitant le sujet du handicap, Franck Dubosc choisit les fauteuils roulants créés par Édouard Detrez. Alexandra Lamy, qui joue le rôle d'une femme paraplégique, se déplace sur un Fauteuil Roulant Français : Édouard Detrez – le Fauteuil Roulant Français – C’est vous la France (30min) diffusé sur Public Sénat et réalisé par Mathieu Pheng.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89douard_Detrez</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Édouard_Detrez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89douard_Detrez</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ordre national des palmes académiques pour « La Défense et l’Illustration de la langue française »
 Médaille du Sénat remis par Gérard Larcher, Président du Sénat.
